--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_4.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19822716-5E4E-8944-95EC-D664E33A0B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991C995A-010B-404D-A554-016FB91FDA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2834,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X92" zoomScale="213" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AC101" sqref="AC101"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="134" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AE105" sqref="AE105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3012,6 +3012,9 @@
       <c r="Y2" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3077,6 +3080,9 @@
       <c r="Y3" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3142,6 +3148,9 @@
       <c r="Y4" t="s">
         <v>45</v>
       </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3201,6 +3210,9 @@
       <c r="Y5" t="s">
         <v>45</v>
       </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3266,6 +3278,9 @@
       <c r="Y6" t="s">
         <v>45</v>
       </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3340,6 +3355,9 @@
       <c r="Y7" t="s">
         <v>45</v>
       </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3411,6 +3429,9 @@
       <c r="Y8" t="s">
         <v>45</v>
       </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3482,6 +3503,9 @@
       <c r="Y9" t="s">
         <v>45</v>
       </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3541,6 +3565,9 @@
       <c r="Y10" t="s">
         <v>45</v>
       </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -3615,6 +3642,9 @@
       <c r="Y11" t="s">
         <v>45</v>
       </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -3689,6 +3719,9 @@
       <c r="Y12" t="s">
         <v>45</v>
       </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -3763,6 +3796,9 @@
       <c r="Y13" t="s">
         <v>45</v>
       </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -3825,6 +3861,9 @@
       <c r="Y14" t="s">
         <v>45</v>
       </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -3890,6 +3929,9 @@
       <c r="Y15" t="s">
         <v>45</v>
       </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -3964,6 +4006,9 @@
       <c r="Y16" t="s">
         <v>45</v>
       </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -4116,6 +4161,9 @@
       <c r="Y18" t="s">
         <v>45</v>
       </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -4190,6 +4238,9 @@
       <c r="Y19" t="s">
         <v>45</v>
       </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -4252,6 +4303,9 @@
       <c r="Y20" t="s">
         <v>45</v>
       </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -4326,6 +4380,9 @@
       <c r="Y21" t="s">
         <v>45</v>
       </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -4397,6 +4454,9 @@
       <c r="Y22" t="s">
         <v>45</v>
       </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -4468,6 +4528,9 @@
       <c r="Y23" t="s">
         <v>45</v>
       </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -4533,6 +4596,9 @@
       <c r="Y24" t="s">
         <v>45</v>
       </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -4604,6 +4670,9 @@
       <c r="Y25" t="s">
         <v>45</v>
       </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -4675,6 +4744,9 @@
       <c r="Y26" t="s">
         <v>45</v>
       </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -4749,6 +4821,9 @@
       <c r="Y27" t="s">
         <v>45</v>
       </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -4823,6 +4898,9 @@
       <c r="Y28" t="s">
         <v>45</v>
       </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -4885,6 +4963,9 @@
       <c r="Y29" t="s">
         <v>45</v>
       </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -4950,6 +5031,9 @@
       <c r="Y30" t="s">
         <v>45</v>
       </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -5021,6 +5105,9 @@
       <c r="Y31" t="s">
         <v>45</v>
       </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -5099,6 +5186,9 @@
         <v>873</v>
       </c>
       <c r="AD32" s="3"/>
+      <c r="AE32">
+        <v>1</v>
+      </c>
       <c r="AF32" t="s">
         <v>871</v>
       </c>
@@ -5176,6 +5266,9 @@
       <c r="Y33" t="s">
         <v>45</v>
       </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -5241,6 +5334,9 @@
       <c r="Y34" t="s">
         <v>45</v>
       </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -5300,6 +5396,9 @@
       <c r="Y35" t="s">
         <v>45</v>
       </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -5374,6 +5473,9 @@
       <c r="Y36" t="s">
         <v>45</v>
       </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -5455,6 +5557,9 @@
         <v>873</v>
       </c>
       <c r="AD37" s="3"/>
+      <c r="AE37">
+        <v>1</v>
+      </c>
       <c r="AF37" t="s">
         <v>871</v>
       </c>
@@ -5529,6 +5634,9 @@
       <c r="Y38" t="s">
         <v>45</v>
       </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -5600,6 +5708,9 @@
       <c r="Y39" t="s">
         <v>45</v>
       </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -5674,6 +5785,9 @@
       <c r="Y40" t="s">
         <v>45</v>
       </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -5745,6 +5859,9 @@
       <c r="Y41" t="s">
         <v>45</v>
       </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -5813,6 +5930,9 @@
       <c r="Y42" t="s">
         <v>45</v>
       </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -5878,6 +5998,9 @@
       <c r="Y43" t="s">
         <v>45</v>
       </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -5953,6 +6076,9 @@
         <v>873</v>
       </c>
       <c r="AD44" s="3"/>
+      <c r="AE44">
+        <v>1</v>
+      </c>
       <c r="AF44" t="s">
         <v>871</v>
       </c>
@@ -6037,6 +6163,9 @@
         <v>873</v>
       </c>
       <c r="AD45" s="3"/>
+      <c r="AE45">
+        <v>1</v>
+      </c>
       <c r="AF45" t="s">
         <v>871</v>
       </c>
@@ -6099,6 +6228,9 @@
       <c r="Y46" t="s">
         <v>45</v>
       </c>
+      <c r="AE46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -6164,6 +6296,9 @@
       <c r="Y47" t="s">
         <v>45</v>
       </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -6235,6 +6370,9 @@
       <c r="Y48" t="s">
         <v>45</v>
       </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -6303,6 +6441,9 @@
       <c r="Y49" t="s">
         <v>45</v>
       </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -6374,6 +6515,9 @@
       <c r="Y50" t="s">
         <v>45</v>
       </c>
+      <c r="AE50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -6445,6 +6589,9 @@
       <c r="Y51" t="s">
         <v>45</v>
       </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -6510,6 +6657,9 @@
       <c r="Y52" t="s">
         <v>45</v>
       </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -6581,6 +6731,9 @@
       <c r="Y53" t="s">
         <v>45</v>
       </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -6649,6 +6802,9 @@
       <c r="Y54" t="s">
         <v>45</v>
       </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -6730,6 +6886,9 @@
         <v>873</v>
       </c>
       <c r="AD55" s="3"/>
+      <c r="AE55">
+        <v>1</v>
+      </c>
       <c r="AF55" t="s">
         <v>871</v>
       </c>
@@ -6795,6 +6954,9 @@
       <c r="Y56" t="s">
         <v>45</v>
       </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -6870,6 +7032,9 @@
         <v>870</v>
       </c>
       <c r="AD57" s="3"/>
+      <c r="AE57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -6932,6 +7097,9 @@
       <c r="Y58" t="s">
         <v>45</v>
       </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -7006,6 +7174,9 @@
       <c r="Y59" t="s">
         <v>45</v>
       </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -7077,6 +7248,9 @@
       <c r="Y60" t="s">
         <v>45</v>
       </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -7151,6 +7325,9 @@
       <c r="AC61" t="s">
         <v>873</v>
       </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
       <c r="AF61" t="s">
         <v>871</v>
       </c>
@@ -7216,6 +7393,9 @@
       <c r="Y62" t="s">
         <v>45</v>
       </c>
+      <c r="AE62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -7278,6 +7458,9 @@
       <c r="Y63" t="s">
         <v>45</v>
       </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -7352,6 +7535,9 @@
       <c r="Y64" t="s">
         <v>45</v>
       </c>
+      <c r="AE64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -7414,6 +7600,9 @@
       <c r="Y65" t="s">
         <v>45</v>
       </c>
+      <c r="AE65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -7476,6 +7665,9 @@
       <c r="Y66" t="s">
         <v>45</v>
       </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -7557,6 +7749,9 @@
         <v>593</v>
       </c>
       <c r="AD67" s="3"/>
+      <c r="AE67">
+        <v>1</v>
+      </c>
       <c r="AF67" t="s">
         <v>871</v>
       </c>
@@ -7631,6 +7826,9 @@
       <c r="Y68" t="s">
         <v>45</v>
       </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -7705,6 +7903,9 @@
       <c r="Y69" t="s">
         <v>45</v>
       </c>
+      <c r="AE69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -7783,6 +7984,9 @@
         <v>873</v>
       </c>
       <c r="AD70" s="3"/>
+      <c r="AE70">
+        <v>1</v>
+      </c>
       <c r="AF70" t="s">
         <v>871</v>
       </c>
@@ -7860,6 +8064,9 @@
       <c r="AC71" t="s">
         <v>873</v>
       </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
       <c r="AF71" t="s">
         <v>871</v>
       </c>
@@ -7937,6 +8144,9 @@
       <c r="Y72" t="s">
         <v>45</v>
       </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -8008,6 +8218,9 @@
       <c r="Y73" t="s">
         <v>45</v>
       </c>
+      <c r="AE73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -8088,6 +8301,9 @@
       <c r="AC74" t="s">
         <v>873</v>
       </c>
+      <c r="AE74">
+        <v>1</v>
+      </c>
       <c r="AF74" t="s">
         <v>871</v>
       </c>
@@ -8159,6 +8375,9 @@
       <c r="AC75" t="s">
         <v>873</v>
       </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
       <c r="AF75" t="s">
         <v>871</v>
       </c>
@@ -8224,6 +8443,9 @@
       <c r="Y76" t="s">
         <v>45</v>
       </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -8292,6 +8514,9 @@
       <c r="Y77" t="s">
         <v>45</v>
       </c>
+      <c r="AE77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -8354,6 +8579,9 @@
       <c r="Y78" t="s">
         <v>45</v>
       </c>
+      <c r="AE78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -8431,6 +8659,9 @@
       <c r="AC79" t="s">
         <v>873</v>
       </c>
+      <c r="AE79">
+        <v>1</v>
+      </c>
       <c r="AF79" t="s">
         <v>871</v>
       </c>
@@ -8499,6 +8730,9 @@
       <c r="Y80" t="s">
         <v>45</v>
       </c>
+      <c r="AE80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81">
@@ -8561,6 +8795,9 @@
       <c r="Y81" t="s">
         <v>45</v>
       </c>
+      <c r="AE81">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82">
@@ -8632,6 +8869,9 @@
       <c r="Y82" t="s">
         <v>45</v>
       </c>
+      <c r="AE82">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83">
@@ -8703,6 +8943,9 @@
       <c r="Y83" t="s">
         <v>45</v>
       </c>
+      <c r="AE83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84">
@@ -8768,6 +9011,9 @@
       <c r="Y84" t="s">
         <v>45</v>
       </c>
+      <c r="AE84">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -8830,6 +9076,9 @@
       <c r="Y85" t="s">
         <v>45</v>
       </c>
+      <c r="AE85">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86">
@@ -8901,6 +9150,9 @@
       <c r="Y86" t="s">
         <v>45</v>
       </c>
+      <c r="AE86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87">
@@ -8957,6 +9209,9 @@
       <c r="Y87" t="s">
         <v>45</v>
       </c>
+      <c r="AE87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88">
@@ -9016,6 +9271,9 @@
       <c r="Y88" t="s">
         <v>45</v>
       </c>
+      <c r="AE88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89">
@@ -9087,6 +9345,9 @@
       <c r="Y89" t="s">
         <v>45</v>
       </c>
+      <c r="AE89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90">
@@ -9158,6 +9419,9 @@
       <c r="Y90" t="s">
         <v>45</v>
       </c>
+      <c r="AE90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91">
@@ -9220,6 +9484,9 @@
       <c r="Y91" t="s">
         <v>45</v>
       </c>
+      <c r="AE91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92">
@@ -9294,6 +9561,9 @@
       <c r="Y92" t="s">
         <v>45</v>
       </c>
+      <c r="AE92">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -9362,6 +9632,9 @@
       <c r="Y93" t="s">
         <v>45</v>
       </c>
+      <c r="AE93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94">
@@ -9436,6 +9709,9 @@
       <c r="Y94" t="s">
         <v>45</v>
       </c>
+      <c r="AE94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95">
@@ -9522,6 +9798,9 @@
       <c r="AC95" t="s">
         <v>873</v>
       </c>
+      <c r="AE95">
+        <v>1</v>
+      </c>
       <c r="AF95" t="s">
         <v>871</v>
       </c>
@@ -9596,6 +9875,9 @@
       <c r="Y96" t="s">
         <v>45</v>
       </c>
+      <c r="AE96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97">
@@ -9670,6 +9952,9 @@
       <c r="Y97" t="s">
         <v>45</v>
       </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98">
@@ -9744,6 +10029,9 @@
       <c r="Y98" t="s">
         <v>45</v>
       </c>
+      <c r="AE98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99">
@@ -9806,6 +10094,9 @@
       <c r="Y99" t="s">
         <v>45</v>
       </c>
+      <c r="AE99">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100">
@@ -9880,6 +10171,9 @@
       <c r="Y100" t="s">
         <v>45</v>
       </c>
+      <c r="AE100">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101">
@@ -9962,6 +10256,9 @@
       </c>
       <c r="AC101" t="s">
         <v>874</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
       </c>
       <c r="AF101" t="s">
         <v>872</v>
